--- a/EXCEL_OUPUT/Meiji Dairy Australasia Pty Ltd Annual Report - 31 March 2023 PW.xlsx
+++ b/EXCEL_OUPUT/Meiji Dairy Australasia Pty Ltd Annual Report - 31 March 2023 PW.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="686">
   <si>
     <t>Anthony Vlavianos</t>
   </si>
@@ -233,7 +233,7 @@
     <t>complying with Accounting Standards the Corporations Regulations 2001 and other mandatory professional reporting requirements, and</t>
   </si>
   <si>
-    <t>giving a true and fair view of the entity's financial position as at 31 March 2023 performance for the financial year ended on that date, and</t>
+    <t>as giving at a true 31 March and 2023 fair view of the entity's financial position performance for the financial year ended on that date, and</t>
   </si>
   <si>
     <t>Corporations Act</t>
@@ -1235,45 +1235,87 @@
     <t>as employee benefit expense when they are due.</t>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>existing</t>
-  </si>
-  <si>
-    <t>initial</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>plant</t>
+    <t>(h) Financial instruments (continued)</t>
+  </si>
+  <si>
+    <t>Financial liabilities (continued)</t>
+  </si>
+  <si>
+    <t>(i) Recognition and derecognition (continued)</t>
+  </si>
+  <si>
+    <t>A financial liability is derecognised when the obligation under the liability is discharged or cancelled or expires.</t>
+  </si>
+  <si>
+    <t>When an existing financial liability is replaced by another from the same lender on substantially different terms, or the terms of an existing liability are substantially modified, such an exchange or modification is treated as the derecognition of the original liability and the recognition of a new liability. The difference in the respective carrying amounts is recognised in the statement of profit or loss and other comprehensive income.</t>
+  </si>
+  <si>
+    <t>(ii) Measurement</t>
+  </si>
+  <si>
+    <t>Subsequent to initial recognition financial liabilities are recognised at amortised cost using the effective interest method.</t>
+  </si>
+  <si>
+    <t>Offsetting</t>
+  </si>
+  <si>
+    <t>Financial assets and financial liabilities are offset and the net amount presented in the statement of financial position when, and only when, the company currently has a legally enforceable right to set off the amounts and it intends either to settle them on a net basis or to realise the asset and settle the liability simultaneously.</t>
+  </si>
+  <si>
+    <t>(i) Property, plant and equipment</t>
+  </si>
+  <si>
+    <t>All property, plant and equipment is stated at historical cost less depreciation. Historical cost includes expenditure</t>
   </si>
   <si>
     <t>that is directly attributable to the acquisition of the items.</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>Depreciation</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>represent</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>wages</t>
+    <t>Subsequent costs are included in the asset's carrying amount or recognised as a separate asset, as appropriate, only when it is probable that future economic benefits associated with the item will flow to the company and the cost of the item can be measured reliably. The carrying amount of any component accounted for as a separate asset is derecognised when replaced. All other repairs and maintenance are charged to profit or loss during the reporting year in which they are incurred.</t>
+  </si>
+  <si>
+    <t>Depreciation is calculated using the straight-line method to allocate the cost or revalued amounts of the assets, net of their residual values, over their estimated useful lives as follows:</t>
+  </si>
+  <si>
+    <t>Plant and equipment</t>
   </si>
   <si>
     <t>Leasehold improvements</t>
   </si>
   <si>
+    <t>The assets' residual values and useful lives are reviewed, and adjusted if appropriate, at the end of each reporting year.</t>
+  </si>
+  <si>
+    <t>Gains and losses on disposals are determined by comparing proceeds with carrying amount. These are included inp profit or loss. When revalued assets are sold, it is company policy to transfer any amounts included in other reserves in respect of those assets to retained earnings.</t>
+  </si>
+  <si>
+    <t>() Trade and other payables</t>
+  </si>
+  <si>
+    <t>These amounts represent liabilities for goods and services provided to the company prior to the end of financial year which are unpaid. The amounts are unsecured and are usually paid within 30 days of recognition.</t>
+  </si>
+  <si>
+    <t>(k) Borrowing costs</t>
+  </si>
+  <si>
+    <t>Borrowing costs are expensed in the year in which they are incurred.</t>
+  </si>
+  <si>
+    <t>(I) Employee benefits</t>
+  </si>
+  <si>
+    <t>(i) Short-term obligations</t>
+  </si>
+  <si>
+    <t>Liabilities for wages and salaries, including non-monetary benefits that are expected to be settled wholly within 12 months after the end of the period in which the employees render the related service are recognised in respect of employees services up to the end of the reporting period and are measured at the amounts expected to be paid when the liabilities are settled. The liabilities are presented as current employee benefit obligations in the</t>
+  </si>
+  <si>
+    <t>5 - 10 years</t>
+  </si>
+  <si>
+    <t>Lease term</t>
+  </si>
+  <si>
     <t>(h) Financial instruments</t>
   </si>
   <si>
@@ -1313,9 +1355,6 @@
     <t>Regular way purchases and sales of financial assets are recognised on trade date, being the date on which the company commits to purchase or sell the asset. Financial assets are derecognised when the rights to receive cash flows from the financial assets have expired or have been transferred and the company has transferred substantially all the risks and rewards of ownership.</t>
   </si>
   <si>
-    <t>(ii) Measurement</t>
-  </si>
-  <si>
     <t>At initial recognition, the company measures a financial asset at its fair value.</t>
   </si>
   <si>
@@ -1691,85 +1730,121 @@
     <t>25</t>
   </si>
   <si>
+    <t>Cash flows from operating activities</t>
+  </si>
+  <si>
+    <t>Receipts from customers (inclusive of goods and services tax)</t>
+  </si>
+  <si>
+    <t>Payments to suppliers and employees (inclusive of goods and services</t>
+  </si>
+  <si>
+    <t>tax)</t>
+  </si>
+  <si>
+    <t>Interest received</t>
+  </si>
+  <si>
+    <t>Interest paid</t>
+  </si>
+  <si>
+    <t>Income taxes paid</t>
+  </si>
+  <si>
+    <t>Net cash inflow (outflow) from operating activities</t>
+  </si>
+  <si>
+    <t>Cash flows from investing activities</t>
+  </si>
+  <si>
+    <t>Payments for property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Net cash (outflow) from investing activities</t>
+  </si>
+  <si>
+    <t>Cash flows from financing activities</t>
+  </si>
+  <si>
+    <t>Principal elements of lease payments</t>
+  </si>
+  <si>
+    <t>Net cash (outflow) from financing activities</t>
+  </si>
+  <si>
+    <t>Net increase (decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at the beginning of the financial year</t>
+  </si>
+  <si>
+    <t>Effects of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at end of year</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Cash and cash equivalents at end of year</t>
-  </si>
-  <si>
-    <t>Receipts from customers (inclusive of goods and services tax)</t>
-  </si>
-  <si>
-    <t>tax)</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>155346538</t>
+  </si>
+  <si>
+    <t>(154,805,634)</t>
   </si>
   <si>
     <t>540904</t>
   </si>
   <si>
-    <t>Interest received</t>
-  </si>
-  <si>
-    <t>Interest paid</t>
-  </si>
-  <si>
-    <t>Income taxes paid</t>
-  </si>
-  <si>
-    <t>Net cash inflow (outflow) from operating activities</t>
-  </si>
-  <si>
-    <t>Payments for property, plant and equipment</t>
-  </si>
-  <si>
-    <t>Net cash (outflow) from investing activities</t>
-  </si>
-  <si>
-    <t>Principal elements of lease payments</t>
-  </si>
-  <si>
-    <t>Net cash (outflow) from financing activities</t>
-  </si>
-  <si>
-    <t>Net increase (decrease) in cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>Cash and cash equivalents at the beginning of the financial year</t>
-  </si>
-  <si>
-    <t>Effects of exchange rate changes on cash and cash equivalents</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>(154,805,634)</t>
+    <t>(47,484)</t>
+  </si>
+  <si>
+    <t>(307,103)</t>
+  </si>
+  <si>
+    <t>243792</t>
+  </si>
+  <si>
+    <t>(4,876)</t>
+  </si>
+  <si>
+    <t>(94,435)</t>
+  </si>
+  <si>
+    <t>144481</t>
+  </si>
+  <si>
+    <t>125024684</t>
+  </si>
+  <si>
+    <t>(128,338,226)</t>
   </si>
   <si>
     <t>(3,313,542)</t>
   </si>
   <si>
-    <t>(47,484)</t>
-  </si>
-  <si>
-    <t>(307,103)</t>
-  </si>
-  <si>
-    <t>243792</t>
-  </si>
-  <si>
-    <t>(4,876)</t>
-  </si>
-  <si>
-    <t>(94,435)</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>(47,142)</t>
+  </si>
+  <si>
+    <t>(236,502)</t>
+  </si>
+  <si>
+    <t>(3,593,440)</t>
+  </si>
+  <si>
+    <t>(3,384)</t>
+  </si>
+  <si>
+    <t>(40,778)</t>
+  </si>
+  <si>
+    <t>(3,637,602)</t>
+  </si>
+  <si>
+    <t>16745161</t>
   </si>
   <si>
     <t>Balance at 1 April 2021</t>
@@ -5507,13 +5582,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -5523,339 +5598,502 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>398</v>
+      </c>
+      <c r="D5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>399</v>
+      </c>
+      <c r="D6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>399</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>399</v>
+      </c>
+      <c r="D8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>401</v>
+      </c>
+      <c r="D11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>401</v>
+      </c>
+      <c r="D12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C14" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>403</v>
+      </c>
+      <c r="D14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>403</v>
+      </c>
+      <c r="D15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B16" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>403</v>
+      </c>
+      <c r="D16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>405</v>
+      </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>406</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B20" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B24" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>407</v>
+      </c>
+      <c r="D24" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>408</v>
+      </c>
+      <c r="D25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C26" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>408</v>
+      </c>
+      <c r="D26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C29" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>411</v>
+      </c>
+      <c r="D29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>411</v>
+      </c>
+      <c r="D30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B31" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B32" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B33" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>412</v>
+      </c>
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C36" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>414</v>
+      </c>
+      <c r="D36" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>416</v>
+      </c>
+      <c r="B38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C41" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D41" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C42" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>419</v>
+      </c>
+      <c r="D43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>419</v>
+      </c>
+      <c r="D44" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5887,447 +6125,447 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="D6" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="B16" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C17" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C18" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="D19" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B21" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C21" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D22" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="C23" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C24" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D24" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B25" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B29" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C29" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C30" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C31" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B32" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C32" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B37" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B38" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C38" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B39" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C39" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="D39" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -6362,549 +6600,549 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E3" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="E6" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C9" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="D9" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C12" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E12" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="C14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E14" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D16" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="E16" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C19" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D19" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E19" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B20" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C20" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E20" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C21" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D21" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E21" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C22" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E22" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E24" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B26" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D26" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E26" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="E29" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B30" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C30" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="C31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="D31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E32" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B33" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C33" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D33" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E33" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="D35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="E35" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B37" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C37" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D37" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="E37" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="E38" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B39" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="E39" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -6939,604 +7177,604 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E4" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D5" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="E5" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="D6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="E8" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E11" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B12" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E12" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C14" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D14" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E14" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C16" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="E18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B19" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="C19" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="E19" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E20" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E21" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C22" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="C23" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="D23" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="C24" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D24" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C25" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D25" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C26" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D26" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="E26" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C27" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E27" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B28" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C28" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D28" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E28" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E29" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C30" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E30" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B31" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="E31" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B32" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B33" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C33" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E33" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="E34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E35" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="E36" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B37" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C37" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D37" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B38" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D38" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="E38" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -7708,589 +7946,589 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C2" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="E4" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D5" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C8" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E14" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C15" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="E15" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E17" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="C18" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B19" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="C19" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B20" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D20" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C21" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="D21" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="E21" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E22" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="E23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B25" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D25" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="E25" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B26" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C26" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E27" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B28" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="C28" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D28" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C29" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D29" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E29" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="D30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="E30" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="B32" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B33" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C33" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D33" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E33" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C34" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D34" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E34" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E35" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B36" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="C36" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="D36" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E36" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B38" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C38" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D38" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E38" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E39" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E40" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="C41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="E41" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -8319,7 +8557,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="C2" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8327,10 +8565,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8338,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8349,10 +8587,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="C5" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8363,7 +8601,7 @@
         <v>350</v>
       </c>
       <c r="C6" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8371,10 +8609,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="C7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8385,7 +8623,7 @@
         <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8393,10 +8631,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C9" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8404,10 +8642,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="C10" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8415,10 +8653,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C11" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8426,10 +8664,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C12" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8437,10 +8675,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="C13" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8448,10 +8686,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8459,10 +8697,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="C15" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8470,10 +8708,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8481,10 +8719,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8492,10 +8730,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="C18" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8503,10 +8741,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C19" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8514,10 +8752,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C20" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8525,10 +8763,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C21" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8536,10 +8774,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="C22" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8547,10 +8785,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="C23" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8558,10 +8796,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C24" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8569,10 +8807,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -8582,13 +8820,13 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -8598,139 +8836,204 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>547</v>
-      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>549</v>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>561</v>
       </c>
       <c r="C4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>582</v>
+      </c>
+      <c r="D7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>550</v>
-      </c>
-      <c r="C6" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>551</v>
-      </c>
-      <c r="C7" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>552</v>
       </c>
       <c r="C8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>553</v>
+      <c r="D8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>565</v>
       </c>
       <c r="C9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>585</v>
+      </c>
+      <c r="D11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>555</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>556</v>
-      </c>
       <c r="C13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>557</v>
-      </c>
       <c r="C14" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" t="s">
-        <v>558</v>
+        <v>586</v>
+      </c>
+      <c r="D14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>572</v>
       </c>
       <c r="C16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" t="s">
-        <v>559</v>
+        <v>587</v>
+      </c>
+      <c r="D16" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>573</v>
       </c>
       <c r="C17" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18" t="s">
-        <v>560</v>
+        <v>587</v>
+      </c>
+      <c r="D17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>574</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" t="s">
-        <v>561</v>
+        <v>588</v>
+      </c>
+      <c r="D18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>575</v>
       </c>
       <c r="C19" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s">
-        <v>562</v>
+        <v>298</v>
+      </c>
+      <c r="D19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>576</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C21" t="s">
-        <v>573</v>
+        <v>296</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8765,21 +9068,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="D2" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="E2" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
         <v>162</v>
@@ -8791,12 +9094,12 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="D4" t="s">
         <v>137</v>
@@ -8807,7 +9110,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C5" t="s">
         <v>135</v>
@@ -8818,7 +9121,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="C6" t="s">
         <v>135</v>
@@ -8827,12 +9130,12 @@
         <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -8844,12 +9147,12 @@
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
@@ -8861,12 +9164,12 @@
         <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="D9" t="s">
         <v>131</v>
@@ -8877,7 +9180,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="C10" t="s">
         <v>129</v>
@@ -8888,7 +9191,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="C11" t="s">
         <v>129</v>
@@ -8897,12 +9200,12 @@
         <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
         <v>162</v>
@@ -8914,7 +9217,7 @@
         <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -8954,7 +9257,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -8965,23 +9268,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="C6" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="D6" t="s">
         <v>298</v>
@@ -8989,24 +9292,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
       <c r="C7" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="D7" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="C8" t="s">
         <v>287</v>
@@ -9017,13 +9320,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C9" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
       <c r="D9" t="s">
         <v>282</v>
@@ -9031,26 +9334,26 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="D10" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>593</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="C12" t="s">
         <v>259</v>
@@ -9064,7 +9367,7 @@
         <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="C13" t="s">
         <v>269</v>
@@ -9075,56 +9378,56 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="C14" t="s">
         <v>244</v>
       </c>
       <c r="D14" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="C15" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="D15" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="C16" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="D16" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B19" t="s">
         <v>170</v>
@@ -9141,7 +9444,7 @@
         <v>264</v>
       </c>
       <c r="B20" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="C20" t="s">
         <v>270</v>
@@ -9152,21 +9455,21 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="D21" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B22" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="C22" t="s">
         <v>187</v>
@@ -9177,18 +9480,18 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="C23" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="D23" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -9196,7 +9499,7 @@
         <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="C25" t="s">
         <v>271</v>
@@ -9207,7 +9510,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
@@ -9218,37 +9521,37 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D27" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="C28" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B30" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C30" t="s">
         <v>162</v>
@@ -9259,10 +9562,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="B31" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="C31" t="s">
         <v>127</v>
@@ -9273,10 +9576,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="B32" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="C32" t="s">
         <v>132</v>
@@ -9287,13 +9590,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="C33" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D33" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -9333,7 +9636,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -9344,7 +9647,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9352,10 +9655,10 @@
         <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="C5" t="s">
-        <v>640</v>
+        <v>665</v>
       </c>
       <c r="D5" t="s">
         <v>356</v>
@@ -9366,7 +9669,7 @@
         <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>666</v>
       </c>
       <c r="C6" t="s">
         <v>360</v>
@@ -9377,18 +9680,18 @@
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>645</v>
+        <v>670</v>
       </c>
       <c r="D7" t="s">
-        <v>653</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="C8" t="s">
         <v>361</v>
@@ -9399,40 +9702,40 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="C10" t="s">
-        <v>646</v>
+        <v>671</v>
       </c>
       <c r="D10" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="C11" t="s">
-        <v>647</v>
+        <v>672</v>
       </c>
       <c r="D11" t="s">
-        <v>655</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="C12" t="s">
-        <v>648</v>
+        <v>673</v>
       </c>
       <c r="D12" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9440,21 +9743,21 @@
         <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="D13" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>637</v>
+        <v>662</v>
       </c>
       <c r="C14" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="D14" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -9462,18 +9765,18 @@
         <v>299</v>
       </c>
       <c r="B15" t="s">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="C15" t="s">
-        <v>651</v>
+        <v>676</v>
       </c>
       <c r="D15" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>638</v>
+        <v>663</v>
       </c>
       <c r="C16" t="s">
         <v>328</v>
@@ -9487,18 +9790,18 @@
         <v>312</v>
       </c>
       <c r="B17" t="s">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="C17" t="s">
-        <v>652</v>
+        <v>677</v>
       </c>
       <c r="D17" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
@@ -9509,15 +9812,15 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="B20" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
@@ -9528,13 +9831,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="C21" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="D21" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/EXCEL_OUPUT/Meiji Dairy Australasia Pty Ltd Annual Report - 31 March 2023 PW.xlsx
+++ b/EXCEL_OUPUT/Meiji Dairy Australasia Pty Ltd Annual Report - 31 March 2023 PW.xlsx
@@ -233,7 +233,7 @@
     <t>complying with Accounting Standards the Corporations Regulations 2001 and other mandatory professional reporting requirements, and</t>
   </si>
   <si>
-    <t>as giving at a true 31 March and 2023 fair view of the entity's financial position performance for the financial year ended on that date, and</t>
+    <t>giving a true and fair view of the entity's financial position as at 31 March 2023 performance for the financial year ended on that date, and</t>
   </si>
   <si>
     <t>Corporations Act</t>
@@ -1466,10 +1466,10 @@
     <t>Trade receivables are amounts due from customers for goods sold or services performed in the ordinary course of business. They are generally due for settlement within 30 days and are therefore all classified as current.</t>
   </si>
   <si>
-    <t>Trade receivables are recognised initially at the amount of consideration that is unconditional unless they contain significant financing components, when they are recognised at fair value. The company holds the trade</t>
-  </si>
-  <si>
-    <t>receivables with the objective of collecting the contractual cash flows and therefore them subsequently at amortised components, cost using they the effective interest method. company</t>
+    <t>components, Trade they receivables company are recognised initially at the amount of consideration that is unconditional unless they contain significant financing when are recognised at fair value. The holds the trade</t>
+  </si>
+  <si>
+    <t>components, they company receivables with the objective of collecting the contractual cash flows and therefore them subsequently at amortised cost using the effective interest method.</t>
   </si>
   <si>
     <t>The company applies the AASB 9 Financial Instruments simplified approach to measuring expected credit losses which uses a lifetime expected loss allowance for all trade receivables.</t>
